--- a/500all/speech_level/speeches_CHRG-114hhrg94887.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94887.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412649</t>
   </si>
   <si>
-    <t>John Katko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Katko. The Committee on Homeland Security, Subcommittee on Transportation Security, will come to order. The subcommittee is meeting today to examine TSA's PreCheck program. I now recognize myself for an opening statement.    I would like to thank our witnesses for their participation in this hearing. We know your time is valuable, and we appreciate you taking the time to be here today to discuss the future of TSA's PreCheck program.    At the outset, I would like to express my sincerest concern for the victims who were attacked last Friday night at Louis Armstrong New Orleans International Airport. Transportation Security officers have the important responsibility of securing our Nation's aviation systems, and once again we have seen TSA and law enforcement personnel act swiftly and, more importantly, bravely to protect passengers from a security threat at the checkpoint. I commend them all for that.    I commend also the TSA and law enforcement personnel in New Orleans, as well as at airports across the country, for their service and dedication to keeping the traveling public safe.    Over the last 3 years, TSA has adopted a more common-sense, risk-based approach to passenger screening through the implementation of its PreCheck program. Since its inception, TSA PreCheck has garnered a positive response from both passengers and transportation security industry stakeholders from moving away from a one-size-fits-all approach to aviation security. TSA PreCheck has fundamentally changed the way Americans think about passenger screening in a post-9/11 world, and I believe it should continue to expand.    However, in order to do so, this program must grow and mature in a manner that saves taxpayers' dollars while also improving the experience of the traveling public and reducing security risks to aviation.    Growth in PreCheck should not be at the expense of any of these core objectives, and I am concerned that several initiatives related to expansion of TSA PreCheck do not meet these criteria.    One such initiative is the Managed Inclusion program, which involves conducting a real-time threat assessment to identify passengers who are eligible for TSA PreCheck on a flight-by-flight basis through the use of such tools as passenger screening canine teams, explosives trace detection technology, and behavior detection officers.    While this program may help reduce wait times and increase utilization of TSA PreCheck lanes, it has not been shown to improve the experience of travelers or reduce risks to aviation.    On the contrary, passengers that go through TSA PreCheck enrollment process and pay $85 for expedited screening are not seeing the benefits that were promised to them. This is largely due to the fact that passengers who did not enroll and are unfamiliar with TSA PreCheck are being ushered into expedited screening lanes through Managed Inclusion with little to no information about the expedited screening process.    The experience for many of these travelers is, at best, confusing and, at worst, infuriating when TSO screeners act as though travelers who have been conditioned for over a decade to take their shoes and belts off should suddenly know to leave them on.    In addition to the poor and confusing experience many travelers face due to Managed Inclusion, serious questions remain as to overall effectiveness of the program at detecting threats.    The Government Accountability Office released a report in December 2014 and found that TSA failed to comprehensively test Managed Inclusion's security effectiveness. Rather, TSA has tested the effectiveness of individual Managed Inclusion security layers, but has not yet tested the security effectiveness of the overall Managed Inclusion process as it functions as a whole.    TSA's failure to conduct such testing leaves us without an accurate assessment of the program's performance. While TSA has cited the random nature of the Managed Inclusion program as a positive, I believe that the benefits of this unpredictable program have not been shown to outweigh the potential risks. Simply put, TSA should not continue operating Managed Inclusion if it does not address the issues I have just outlined.    Finally, we have recently learned that a convicted felon and former member of a domestic terror organization was allowed to utilize PreCheck screening as part of TSA's risk assessment program. Risk assessment determines PreCheck eligibility by using risk algorithms built into TSA's Secure Flight system and grants certain passengers PreCheck status on a flight-by-flight basis.    In this instance, we understand that, even though the traveler document-checker recognized the individual from media reports, a TSA supervisor allowed the passenger to proceed through PreCheck screening. We must be wary not to become complacent at screening checkpoints because of PreCheck, and it is important that screening officers are empowered to use their better judgment in the screening process.    Fortunately, we all share the same goal, which is to protect the millions of passengers who use our Nation's critical transportation systems every day. With this in mind, the subcommittee looks forward to today's important dialogue on how to enhance risk-based security going forward.</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>400402</t>
   </si>
   <si>
-    <t>Bennie G. Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you very much, Mr. Chairman. Thank you for holding today's hearing.    I appreciate the subcommittee's willingness to take a hard look at the security vulnerabilities associated with how the Transportation Security Administration is administering the PreCheck program.    As a frequent flyer, I have long believed that TSA should have a trusted traveler program where individuals identified as low-risk travelers are provided expedited airport security screening.    When TSA was established in 2001, Congress granted TSA the authority to establish a trusted traveler program. However, as many of you may recall, it took years for TSA to get over its initial reluctance about modifying its screening operations for vetted trusted travelers.    Former TSA Administrator John Pistole deserves great credit for recognizing the potential of a trusted traveler program and integrating the PreCheck program into TSA's risk-based airport screening operations. It just makes good sense to provide expedited screening to passengers who have voluntarily submitted biographical information and fingerprints and have been fully vetted.    Today there are 1 million known low-risk travelers in the PreCheck program. That is a good start. But given that about 2 million people fly every day, TSA needs to continue working to bring more Americans into the PreCheck program.    That said, the focus of today's hearing is not on the vetted population that are legitimately low-risk and receive expedited screening. It is on what TSA has called their real-time intelligence-based methods for identifying passengers on a trip-by-trip basis for expedited physical screening.    The so-called Managed Inclusion program and the other real-time screening methods that TSA is currently employing at our Nation's airports have not been scientifically validated as effective security approaches.    Further, as both the Department's own inspector general and comptroller general have independently found, these approaches create security vulnerabilities.    Last week the inspector general released a report about a very troubling incident involving a traveler who was granted enhanced security screening. Suffice it to say, the terrorist and criminal history of the traveler involved should have resulted in TSA determining that enhanced security screening was in order, not expedited screening.    This is just one incident. I am sure it would have never come to light if not for the courageous TSA employee who came forward to report it, commonly referred to as a whistle-blower.    This incident begs the question: Are these procedures appropriately designed to ensure that a person who actually presents a security risk is not given lighter screening? I have no confidence, based on the public and Classified information I have seen, that this is the case. As such, I believe that this situation demands legislative action.    To this end, together with Chairman Katko and Ranking Member Rice, I will be introducing legislation to address these known vulnerabilities regarding expedited screening. It is important that there is not a permanent leader at TSA to address the security vulnerabilities that have come to light.    I look forward to working with the leadership of this subcommittee to bring our concerns to the attention of Acting Administrator Mel Carraway to get timely action to address the security vulnerabilities.    With that, Chairman and Ranking Member, I thank you for your prompt attention to this critical security matter and yield back.</t>
   </si>
   <si>
@@ -82,18 +76,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Roth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roth. Good afternoon, Chairman Katko, Ranking Member Rice, Mr. Thompson, and Members of the subcommittee. Thank you for inviting me here today to testify about TSA's PreCheck initiative. My public testimony today will focus only on the Unclassified portions of our recent inspection reports.    The majority of what we found is either Classified at the Secret level or contains Sensitive Security Information. I look forward to discussing the complete results and recommendation of our reports in greater detail once we move into the closed session.    In October 2011, TSA piloted PreCheck at four airports. After that program ended in 2012, Congress directed TSA to certify by the end of December 2013 that 25 percent of air passengers are eligible for expedited screening without lowering security standards. Congress also directed TSA to outline a strategy to increase the number of air passengers eligible for expedited screening to 50 percent by the end of December 2014.    To accomplish these goals, TSA did the following:    First, it granted some Government-vetted or known populations PreCheck eligibility.    Second, it deployed Managed Inclusion to allow the general public opportunities to receive PreCheck benefits.    Third, it implemented risk assessment rules to allow others to receive PreCheck eligibility.    Finally, it established the PreCheck application program for membership.    These actions have resulted in a massive increase in the population eligible to receive PreCheck. Our audits assessed the PreCheck initiative to determine, first, what processes and procedures TSA uses to vet program applicants properly; second, how TSA assesses member continued eligibility; and, third, how TSA tests is process for effectiveness and timeliness.    We conducted field work on this from January to June 2014. We determined that, as a concept, PreCheck is a positive step towards risk-based security screening. However, TSA needs to modify PreCheck vetting and security processes. We also determined that PreCheck communication and coordination need improvement. Our specific findings are either Classified or contain Sensitive information.    In addition, we responded to a whistle-blower disclosure concerning the use of the risk-based rule by the TSA Secure Flight program that may create a gap in aviation security. The inspection results of that are likewise SSI and have been delivered to the subcommittee.    Finally, to further illustrate the need for modification of PreCheck vetting and screening processes, we issued a letter report this month that found a notorious felon convicted of domestic terrorism crimes was granted PreCheck as a result of TSA's risk assessment rules. We reviewed the allegation after receiving information alleging the convicted felon was improperly cleared for PreCheck screening.    We are naturally concerned that, as evidenced by this incident, such rules are inadequate to ensure only low-risk populations receive PreCheck screening. As a result, we recommended TSA limit PreCheck screening to known passengers that TSA itself or other trusted Government partners had determined are members of trusted populations.    We are concerned about TSA's response to our findings. TSA has not accepted the majority of our recommendations.    Chairman Katko, this concludes my prepared statement. I welcome any questions that you or other Members of the subcommittee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Roth. Obviously, your testimony will be somewhat limited until we get into the secure portion of the hearing. But, nonetheless, what you can talk about in the open hearing here, I appreciate your input. So thank you.    We appreciate all of you being here today, of course.    The second witness, Mr. Fletcher, is the chief risk officer at the Transportation Security Administration. In this new position, he is responsible for developing and driving the long-range strategic vision and objectives for TSA with respect to risk-based security and risk-managed activities and implementing risk management across all areas of the agency.    The Chairman will now recognize Mr. Fletcher to testify.</t>
   </si>
   <si>
-    <t>Fletcher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fletcher. Thank you, sir.    Good afternoon, Chairman Katko, Ranking Member Rice, and distinguished Members of the subcommittee. I appreciate the opportunity to appear before you today.    As you have already noted, this hearing closely follows the second brazen attack on a TSA screening checkpoint in less than 18 months. The heroic efforts of our law enforcement partners in New Orleans and a TSA workforce trained in responding to emergency situations prevented this incident from ending in tragedy.    Acting Administrator Carraway traveled to New Orleans on Saturday to meet with and show support for TSA and law enforcement personnel and was inspired by the resilience of all involved.    I am confident that I speak for all of TSA when I say thank you to all of the TSA law enforcement and airport personnel in New Orleans for their swift response to this senseless attack.    Since its creation, TSA has focused on building and enhancing a multi-layered aviation security system, which includes a well-trained workforce, state-of-the-art technologies, intelligence analysis and information sharing, explosive detection canine teams, and the Federal Air Marshal Service.    For nearly a decade, TSA applied these layers in a one-size-fits-all approach where nearly every traveler was assessed as posing essentially the same level of risk. This equal risk philosophy started changing in late 2011, when TSA began implementing an intelligence-driven, risk-based approach to aviation security.    Commercial aviation remains the target of terrorist groups who have proven intelligent and adaptive as demonstrated by their development of nonmetallic explosive devices designed to evade aviation security measures. These devices remain one of the most serious threats to aviation.    One way to address this threat is to implement increasingly strict security requirements that of necessity become more invasive and cumbersome to travelers and then to apply these measures broadly to every passenger and their baggage.    Another way to deal with this threat is by adopting the intelligence-driven risk-based approach reflected in more than three dozen policy decisions implemented by TSA over the last 4 years.    The idea of a risk-based approach to aviation security is by no means novel. TSA's founding legislation, the Aviation and Transportation Security Act, mentions creating a trusted traveler program, and the 9/11 Commission Report recommends TSA establish risk-based priorities to protect transportation assets and then adopt practical and cost-effective means while balancing security and civil liberties.    Through our risk-based policies, TSA is able to deploy our limited security resources to more effectively manage risk by concentrating on higher-risk travelers and commerce while facilitating the legitimate movement of those deemed to represent lower risk.    Effective risk management involves identifying, analyzing, and communicating risk and then deciding whether to accept, avoid, transfer, or control that risk to an acceptable level considering the associated costs and benefits of any actions taken.    For TSA, effective risk management considers how to provide the most effective security in the most efficient way to enhance the value TSA provides to the American people as we fulfill our counterterrorism mission.    As noted by the 9/11 Commission, perfection is unattainable. In my view, its pursuit is unsustainable. Risk management is not a no-risk approach. Trying to eliminate all risk results in poor security, unnecessarily burdens the aviation industry, and will create greater pressures on civil rights and liberties.    A key component of our passenger screening approach is the TSA PreCheck application program launched in December 2013. Over the past 12 months, TSA has sustained a daily average enrollment volume of nearly 3,500 travelers, more than double our original projections. Last week we exceeded 1 million applications to the program.    The enrollment potential is significantly greater. Recent U.S. Travel Association market research indicates that more than 15 million U.S. travelers not currently enrolled in the TSA PreCheck program are likely to enroll, with an additional 21 million undecided. These 36 million travelers are our target market. The key to realizing this enrollment potential is the continued collaboration with private-sector partners across the travel and tourism industry.    Our industry and stakeholder partners are vital to TSA's ability to implement risk-based security. Cooperation with and engagement by these partners was essential in helping TSA establish and expand the TSA PreCheck program, which now includes 11 airlines representing over 85 percent of domestic travelers, with nearly 530 TSA PreCheck screening lanes now operating at 133 airports Nation-wide.    TSA plays an important role in partnerships with airports and airlines in securing our Nation's commercial aviation system and is committed to fielding responsive risk-based solutions that can enhance our current security posture.    Thank you for the opportunity to testify today and for your interest and support of our risk-based security initiatives. I look forward to your questions.    Thank you.</t>
   </si>
   <si>
@@ -199,9 +187,6 @@
     <t xml:space="preserve">    Mr. Thompson. Ms. Grover, you looked at it. Are you aware of any?</t>
   </si>
   <si>
-    <t>Grover</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Grover. No, sir. I am aware that TSA has taken another look at the literature that is underlying each of the indicators that they are using.    They are in the process of testing the use of the new indicators and the new rules for using them at airports right now, and we are awaiting the results of those tests to see what TSA learns about how they are actually being applied in practice.</t>
   </si>
   <si>
@@ -256,9 +241,6 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman.    I want to talk some more about this Managed Inclusion program.    Tell me, what was the objective when you all set that up? What were you trying to accomplish with this?</t>
   </si>
   <si>
@@ -304,9 +286,6 @@
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Rogers. I appreciate it.    Ms. Jackson Lee, I believe you are next up.</t>
   </si>
   <si>
-    <t>Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Let me thank the Chairman and Ranking Member for their courtesies. This is a committee that I hold very dear as a very important responsibility. I thank both of you for your very, very astute leadership on this hearing and the hearing that we may have afterwards, which I hope I will be able to attend after another hearing.    Let me also thank the witnesses for their service, certainty the representative from the GAO, for constantly providing us a flashlight to be able to ensure and to correct and to keep the American people secure.    Let me thank all of those who are part of the Homeland Security team, Transportation Security Administration. Many of you know my great admiration for the thousands upon thousands of TSO officers that put their lives on the line in the Nation's airports to save our lives. So I want them to know how much I appreciate them.    I want to acknowledge the shooting and the loss of life of the TSO officer in Los Angeles. We went out to Los Angeles in the last session.    Let me offer my concern and best wishes for a speedy recovery for the TSO officer at the Louis Armstrong Airport in New Orleans.    So, let me proceed with a series of points, and maybe I will--let me just make this point, and then my colleagues should hear my point. This is a team effort when we talk about securing the airport. I am constantly frustrated, and I understand local government, but I do believe this is going to require a Federal sort-of engagement and setting protocols. There is not enough coverage of the TSOs officers of armed personnel which in this instance, are our local law enforcement as hired or dictated to by the local airports.    The first news report came out that it was a TSO officer, you might have heard it, that shot the perpetrator at New Orleans who had a machete and something else, endangering the lives of passengers. Not understanding what their intent was, not knowing whether to classify them as a terrorist or deranged individual. It was the brave acts of a local law enforcement, so I believe, and will be raising this question, of the protocols to be established in airports across America, there is not enough coverage. The airport management, they save money. Cities save money by not having the appropriate armed law enforcement present.    Let me ask the question to Mr.--if I might--to Mr. Fletcher. Are your TSOs armed?</t>
   </si>
   <si>
@@ -350,9 +329,6 @@
   </si>
   <si>
     <t>412653</t>
-  </si>
-  <si>
-    <t>John Ratcliffe</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman, and I very much appreciate you holding this hearing on the issue of security in our airports. As you know, I am a former terrorism prosecutor, a United States attorney that served after 9/11 and, you know, very much believe in the mission of the TSA and believe--and I am grateful for the testimony of the witnesses today to inform the opinions of this subcommittee.    I am also, I will say, someone that goes through our airports through the TSA PreCheck program and so you know, I am very familiar with that.    Based on the testimony that I was able to review, the one thing that I am concerned about, is some of the TSA's more flexible programs that allow for real-time assessments of potential risks as opposed to the TSA PreCheck, which allows travellers like me who qualify and submit to a background check to get through more expeditiously. I know, Mr. Roth, you commented on that in your March 16 report and talked about the incident involving a convicted felon who was improperly cleared under one of these more flexible programs.    So, I guess let me just start there. I want to ask this question of you, Mr. Fletcher is, you know, why is the TSA using methods like Managed Inclusion and risk assessment to expedite the TSA PreCheck line when individuals who opted in the PreCheck program go through a more rigorous procedure to gain the benefits of the program, what it offers?</t>
@@ -847,11 +823,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -873,11 +847,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -899,11 +871,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -923,13 +893,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -951,11 +919,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -977,11 +943,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1001,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1029,11 +991,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1053,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1081,11 +1039,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1107,11 +1063,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1131,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>25</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1159,11 +1111,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1183,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1211,11 +1159,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1235,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1263,11 +1207,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1287,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1315,11 +1255,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1339,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1367,11 +1303,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1391,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1419,11 +1351,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1443,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1471,11 +1399,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1495,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1521,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1547,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1573,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1599,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1625,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1651,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1677,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1703,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1729,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1757,11 +1663,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1781,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1809,11 +1711,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1833,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1859,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1885,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1911,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1937,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1963,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>61</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1989,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2015,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>61</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2041,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2067,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2093,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2119,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2145,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2171,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2197,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2223,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2249,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2275,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2301,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2327,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2353,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2381,11 +2239,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2405,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G62" t="s">
-        <v>80</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2431,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2457,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>79</v>
-      </c>
-      <c r="G64" t="s">
-        <v>80</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2483,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2509,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
+        <v>74</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
         <v>79</v>
-      </c>
-      <c r="G66" t="s">
-        <v>80</v>
-      </c>
-      <c r="H66" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2535,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2561,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s">
-        <v>80</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2587,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2613,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s">
-        <v>80</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2639,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2665,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s">
-        <v>80</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2691,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2717,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s">
-        <v>80</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2743,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2769,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s">
-        <v>80</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2797,11 +2623,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2821,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2847,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2873,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2899,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2925,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2951,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2977,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
         <v>96</v>
-      </c>
-      <c r="H84" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3003,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3029,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3055,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3081,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3107,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3133,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>96</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3161,11 +2959,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3185,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>111</v>
-      </c>
-      <c r="G92" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3211,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3237,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>111</v>
-      </c>
-      <c r="G94" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3265,11 +3055,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3289,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3317,11 +3103,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3341,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3369,11 +3151,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3393,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3421,11 +3199,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3445,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3473,11 +3247,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3497,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3525,11 +3295,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3549,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3577,11 +3343,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3601,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3627,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>61</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3655,11 +3415,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3679,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3707,11 +3463,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3731,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3759,11 +3511,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3783,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3811,11 +3559,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3835,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3863,11 +3607,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3887,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3915,11 +3655,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3939,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3967,11 +3703,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3991,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4019,11 +3751,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94887.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94887.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412649</t>
   </si>
   <si>
+    <t>Katko</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Katko. The Committee on Homeland Security, Subcommittee on Transportation Security, will come to order. The subcommittee is meeting today to examine TSA's PreCheck program. I now recognize myself for an opening statement.    I would like to thank our witnesses for their participation in this hearing. We know your time is valuable, and we appreciate you taking the time to be here today to discuss the future of TSA's PreCheck program.    At the outset, I would like to express my sincerest concern for the victims who were attacked last Friday night at Louis Armstrong New Orleans International Airport. Transportation Security officers have the important responsibility of securing our Nation's aviation systems, and once again we have seen TSA and law enforcement personnel act swiftly and, more importantly, bravely to protect passengers from a security threat at the checkpoint. I commend them all for that.    I commend also the TSA and law enforcement personnel in New Orleans, as well as at airports across the country, for their service and dedication to keeping the traveling public safe.    Over the last 3 years, TSA has adopted a more common-sense, risk-based approach to passenger screening through the implementation of its PreCheck program. Since its inception, TSA PreCheck has garnered a positive response from both passengers and transportation security industry stakeholders from moving away from a one-size-fits-all approach to aviation security. TSA PreCheck has fundamentally changed the way Americans think about passenger screening in a post-9/11 world, and I believe it should continue to expand.    However, in order to do so, this program must grow and mature in a manner that saves taxpayers' dollars while also improving the experience of the traveling public and reducing security risks to aviation.    Growth in PreCheck should not be at the expense of any of these core objectives, and I am concerned that several initiatives related to expansion of TSA PreCheck do not meet these criteria.    One such initiative is the Managed Inclusion program, which involves conducting a real-time threat assessment to identify passengers who are eligible for TSA PreCheck on a flight-by-flight basis through the use of such tools as passenger screening canine teams, explosives trace detection technology, and behavior detection officers.    While this program may help reduce wait times and increase utilization of TSA PreCheck lanes, it has not been shown to improve the experience of travelers or reduce risks to aviation.    On the contrary, passengers that go through TSA PreCheck enrollment process and pay $85 for expedited screening are not seeing the benefits that were promised to them. This is largely due to the fact that passengers who did not enroll and are unfamiliar with TSA PreCheck are being ushered into expedited screening lanes through Managed Inclusion with little to no information about the expedited screening process.    The experience for many of these travelers is, at best, confusing and, at worst, infuriating when TSO screeners act as though travelers who have been conditioned for over a decade to take their shoes and belts off should suddenly know to leave them on.    In addition to the poor and confusing experience many travelers face due to Managed Inclusion, serious questions remain as to overall effectiveness of the program at detecting threats.    The Government Accountability Office released a report in December 2014 and found that TSA failed to comprehensively test Managed Inclusion's security effectiveness. Rather, TSA has tested the effectiveness of individual Managed Inclusion security layers, but has not yet tested the security effectiveness of the overall Managed Inclusion process as it functions as a whole.    TSA's failure to conduct such testing leaves us without an accurate assessment of the program's performance. While TSA has cited the random nature of the Managed Inclusion program as a positive, I believe that the benefits of this unpredictable program have not been shown to outweigh the potential risks. Simply put, TSA should not continue operating Managed Inclusion if it does not address the issues I have just outlined.    Finally, we have recently learned that a convicted felon and former member of a domestic terror organization was allowed to utilize PreCheck screening as part of TSA's risk assessment program. Risk assessment determines PreCheck eligibility by using risk algorithms built into TSA's Secure Flight system and grants certain passengers PreCheck status on a flight-by-flight basis.    In this instance, we understand that, even though the traveler document-checker recognized the individual from media reports, a TSA supervisor allowed the passenger to proceed through PreCheck screening. We must be wary not to become complacent at screening checkpoints because of PreCheck, and it is important that screening officers are empowered to use their better judgment in the screening process.    Fortunately, we all share the same goal, which is to protect the millions of passengers who use our Nation's critical transportation systems every day. With this in mind, the subcommittee looks forward to today's important dialogue on how to enhance risk-based security going forward.</t>
   </si>
   <si>
@@ -64,6 +73,12 @@
     <t>400402</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Bennie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you very much, Mr. Chairman. Thank you for holding today's hearing.    I appreciate the subcommittee's willingness to take a hard look at the security vulnerabilities associated with how the Transportation Security Administration is administering the PreCheck program.    As a frequent flyer, I have long believed that TSA should have a trusted traveler program where individuals identified as low-risk travelers are provided expedited airport security screening.    When TSA was established in 2001, Congress granted TSA the authority to establish a trusted traveler program. However, as many of you may recall, it took years for TSA to get over its initial reluctance about modifying its screening operations for vetted trusted travelers.    Former TSA Administrator John Pistole deserves great credit for recognizing the potential of a trusted traveler program and integrating the PreCheck program into TSA's risk-based airport screening operations. It just makes good sense to provide expedited screening to passengers who have voluntarily submitted biographical information and fingerprints and have been fully vetted.    Today there are 1 million known low-risk travelers in the PreCheck program. That is a good start. But given that about 2 million people fly every day, TSA needs to continue working to bring more Americans into the PreCheck program.    That said, the focus of today's hearing is not on the vetted population that are legitimately low-risk and receive expedited screening. It is on what TSA has called their real-time intelligence-based methods for identifying passengers on a trip-by-trip basis for expedited physical screening.    The so-called Managed Inclusion program and the other real-time screening methods that TSA is currently employing at our Nation's airports have not been scientifically validated as effective security approaches.    Further, as both the Department's own inspector general and comptroller general have independently found, these approaches create security vulnerabilities.    Last week the inspector general released a report about a very troubling incident involving a traveler who was granted enhanced security screening. Suffice it to say, the terrorist and criminal history of the traveler involved should have resulted in TSA determining that enhanced security screening was in order, not expedited screening.    This is just one incident. I am sure it would have never come to light if not for the courageous TSA employee who came forward to report it, commonly referred to as a whistle-blower.    This incident begs the question: Are these procedures appropriately designed to ensure that a person who actually presents a security risk is not given lighter screening? I have no confidence, based on the public and Classified information I have seen, that this is the case. As such, I believe that this situation demands legislative action.    To this end, together with Chairman Katko and Ranking Member Rice, I will be introducing legislation to address these known vulnerabilities regarding expedited screening. It is important that there is not a permanent leader at TSA to address the security vulnerabilities that have come to light.    I look forward to working with the leadership of this subcommittee to bring our concerns to the attention of Acting Administrator Mel Carraway to get timely action to address the security vulnerabilities.    With that, Chairman and Ranking Member, I thank you for your prompt attention to this critical security matter and yield back.</t>
   </si>
   <si>
@@ -76,12 +91,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Roth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Roth. Good afternoon, Chairman Katko, Ranking Member Rice, Mr. Thompson, and Members of the subcommittee. Thank you for inviting me here today to testify about TSA's PreCheck initiative. My public testimony today will focus only on the Unclassified portions of our recent inspection reports.    The majority of what we found is either Classified at the Secret level or contains Sensitive Security Information. I look forward to discussing the complete results and recommendation of our reports in greater detail once we move into the closed session.    In October 2011, TSA piloted PreCheck at four airports. After that program ended in 2012, Congress directed TSA to certify by the end of December 2013 that 25 percent of air passengers are eligible for expedited screening without lowering security standards. Congress also directed TSA to outline a strategy to increase the number of air passengers eligible for expedited screening to 50 percent by the end of December 2014.    To accomplish these goals, TSA did the following:    First, it granted some Government-vetted or known populations PreCheck eligibility.    Second, it deployed Managed Inclusion to allow the general public opportunities to receive PreCheck benefits.    Third, it implemented risk assessment rules to allow others to receive PreCheck eligibility.    Finally, it established the PreCheck application program for membership.    These actions have resulted in a massive increase in the population eligible to receive PreCheck. Our audits assessed the PreCheck initiative to determine, first, what processes and procedures TSA uses to vet program applicants properly; second, how TSA assesses member continued eligibility; and, third, how TSA tests is process for effectiveness and timeliness.    We conducted field work on this from January to June 2014. We determined that, as a concept, PreCheck is a positive step towards risk-based security screening. However, TSA needs to modify PreCheck vetting and security processes. We also determined that PreCheck communication and coordination need improvement. Our specific findings are either Classified or contain Sensitive information.    In addition, we responded to a whistle-blower disclosure concerning the use of the risk-based rule by the TSA Secure Flight program that may create a gap in aviation security. The inspection results of that are likewise SSI and have been delivered to the subcommittee.    Finally, to further illustrate the need for modification of PreCheck vetting and screening processes, we issued a letter report this month that found a notorious felon convicted of domestic terrorism crimes was granted PreCheck as a result of TSA's risk assessment rules. We reviewed the allegation after receiving information alleging the convicted felon was improperly cleared for PreCheck screening.    We are naturally concerned that, as evidenced by this incident, such rules are inadequate to ensure only low-risk populations receive PreCheck screening. As a result, we recommended TSA limit PreCheck screening to known passengers that TSA itself or other trusted Government partners had determined are members of trusted populations.    We are concerned about TSA's response to our findings. TSA has not accepted the majority of our recommendations.    Chairman Katko, this concludes my prepared statement. I welcome any questions that you or other Members of the subcommittee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Roth. Obviously, your testimony will be somewhat limited until we get into the secure portion of the hearing. But, nonetheless, what you can talk about in the open hearing here, I appreciate your input. So thank you.    We appreciate all of you being here today, of course.    The second witness, Mr. Fletcher, is the chief risk officer at the Transportation Security Administration. In this new position, he is responsible for developing and driving the long-range strategic vision and objectives for TSA with respect to risk-based security and risk-managed activities and implementing risk management across all areas of the agency.    The Chairman will now recognize Mr. Fletcher to testify.</t>
   </si>
   <si>
+    <t>Fletcher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Fletcher. Thank you, sir.    Good afternoon, Chairman Katko, Ranking Member Rice, and distinguished Members of the subcommittee. I appreciate the opportunity to appear before you today.    As you have already noted, this hearing closely follows the second brazen attack on a TSA screening checkpoint in less than 18 months. The heroic efforts of our law enforcement partners in New Orleans and a TSA workforce trained in responding to emergency situations prevented this incident from ending in tragedy.    Acting Administrator Carraway traveled to New Orleans on Saturday to meet with and show support for TSA and law enforcement personnel and was inspired by the resilience of all involved.    I am confident that I speak for all of TSA when I say thank you to all of the TSA law enforcement and airport personnel in New Orleans for their swift response to this senseless attack.    Since its creation, TSA has focused on building and enhancing a multi-layered aviation security system, which includes a well-trained workforce, state-of-the-art technologies, intelligence analysis and information sharing, explosive detection canine teams, and the Federal Air Marshal Service.    For nearly a decade, TSA applied these layers in a one-size-fits-all approach where nearly every traveler was assessed as posing essentially the same level of risk. This equal risk philosophy started changing in late 2011, when TSA began implementing an intelligence-driven, risk-based approach to aviation security.    Commercial aviation remains the target of terrorist groups who have proven intelligent and adaptive as demonstrated by their development of nonmetallic explosive devices designed to evade aviation security measures. These devices remain one of the most serious threats to aviation.    One way to address this threat is to implement increasingly strict security requirements that of necessity become more invasive and cumbersome to travelers and then to apply these measures broadly to every passenger and their baggage.    Another way to deal with this threat is by adopting the intelligence-driven risk-based approach reflected in more than three dozen policy decisions implemented by TSA over the last 4 years.    The idea of a risk-based approach to aviation security is by no means novel. TSA's founding legislation, the Aviation and Transportation Security Act, mentions creating a trusted traveler program, and the 9/11 Commission Report recommends TSA establish risk-based priorities to protect transportation assets and then adopt practical and cost-effective means while balancing security and civil liberties.    Through our risk-based policies, TSA is able to deploy our limited security resources to more effectively manage risk by concentrating on higher-risk travelers and commerce while facilitating the legitimate movement of those deemed to represent lower risk.    Effective risk management involves identifying, analyzing, and communicating risk and then deciding whether to accept, avoid, transfer, or control that risk to an acceptable level considering the associated costs and benefits of any actions taken.    For TSA, effective risk management considers how to provide the most effective security in the most efficient way to enhance the value TSA provides to the American people as we fulfill our counterterrorism mission.    As noted by the 9/11 Commission, perfection is unattainable. In my view, its pursuit is unsustainable. Risk management is not a no-risk approach. Trying to eliminate all risk results in poor security, unnecessarily burdens the aviation industry, and will create greater pressures on civil rights and liberties.    A key component of our passenger screening approach is the TSA PreCheck application program launched in December 2013. Over the past 12 months, TSA has sustained a daily average enrollment volume of nearly 3,500 travelers, more than double our original projections. Last week we exceeded 1 million applications to the program.    The enrollment potential is significantly greater. Recent U.S. Travel Association market research indicates that more than 15 million U.S. travelers not currently enrolled in the TSA PreCheck program are likely to enroll, with an additional 21 million undecided. These 36 million travelers are our target market. The key to realizing this enrollment potential is the continued collaboration with private-sector partners across the travel and tourism industry.    Our industry and stakeholder partners are vital to TSA's ability to implement risk-based security. Cooperation with and engagement by these partners was essential in helping TSA establish and expand the TSA PreCheck program, which now includes 11 airlines representing over 85 percent of domestic travelers, with nearly 530 TSA PreCheck screening lanes now operating at 133 airports Nation-wide.    TSA plays an important role in partnerships with airports and airlines in securing our Nation's commercial aviation system and is committed to fielding responsive risk-based solutions that can enhance our current security posture.    Thank you for the opportunity to testify today and for your interest and support of our risk-based security initiatives. I look forward to your questions.    Thank you.</t>
   </si>
   <si>
@@ -187,6 +208,9 @@
     <t xml:space="preserve">    Mr. Thompson. Ms. Grover, you looked at it. Are you aware of any?</t>
   </si>
   <si>
+    <t>Grover</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Grover. No, sir. I am aware that TSA has taken another look at the literature that is underlying each of the indicators that they are using.    They are in the process of testing the use of the new indicators and the new rules for using them at airports right now, and we are awaiting the results of those tests to see what TSA learns about how they are actually being applied in practice.</t>
   </si>
   <si>
@@ -241,6 +265,12 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman.    I want to talk some more about this Managed Inclusion program.    Tell me, what was the objective when you all set that up? What were you trying to accomplish with this?</t>
   </si>
   <si>
@@ -286,6 +316,9 @@
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Rogers. I appreciate it.    Ms. Jackson Lee, I believe you are next up.</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Let me thank the Chairman and Ranking Member for their courtesies. This is a committee that I hold very dear as a very important responsibility. I thank both of you for your very, very astute leadership on this hearing and the hearing that we may have afterwards, which I hope I will be able to attend after another hearing.    Let me also thank the witnesses for their service, certainty the representative from the GAO, for constantly providing us a flashlight to be able to ensure and to correct and to keep the American people secure.    Let me thank all of those who are part of the Homeland Security team, Transportation Security Administration. Many of you know my great admiration for the thousands upon thousands of TSO officers that put their lives on the line in the Nation's airports to save our lives. So I want them to know how much I appreciate them.    I want to acknowledge the shooting and the loss of life of the TSO officer in Los Angeles. We went out to Los Angeles in the last session.    Let me offer my concern and best wishes for a speedy recovery for the TSO officer at the Louis Armstrong Airport in New Orleans.    So, let me proceed with a series of points, and maybe I will--let me just make this point, and then my colleagues should hear my point. This is a team effort when we talk about securing the airport. I am constantly frustrated, and I understand local government, but I do believe this is going to require a Federal sort-of engagement and setting protocols. There is not enough coverage of the TSOs officers of armed personnel which in this instance, are our local law enforcement as hired or dictated to by the local airports.    The first news report came out that it was a TSO officer, you might have heard it, that shot the perpetrator at New Orleans who had a machete and something else, endangering the lives of passengers. Not understanding what their intent was, not knowing whether to classify them as a terrorist or deranged individual. It was the brave acts of a local law enforcement, so I believe, and will be raising this question, of the protocols to be established in airports across America, there is not enough coverage. The airport management, they save money. Cities save money by not having the appropriate armed law enforcement present.    Let me ask the question to Mr.--if I might--to Mr. Fletcher. Are your TSOs armed?</t>
   </si>
   <si>
@@ -329,6 +362,9 @@
   </si>
   <si>
     <t>412653</t>
+  </si>
+  <si>
+    <t>Ratcliffe</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman, and I very much appreciate you holding this hearing on the issue of security in our airports. As you know, I am a former terrorism prosecutor, a United States attorney that served after 9/11 and, you know, very much believe in the mission of the TSA and believe--and I am grateful for the testimony of the witnesses today to inform the opinions of this subcommittee.    I am also, I will say, someone that goes through our airports through the TSA PreCheck program and so you know, I am very familiar with that.    Based on the testimony that I was able to review, the one thing that I am concerned about, is some of the TSA's more flexible programs that allow for real-time assessments of potential risks as opposed to the TSA PreCheck, which allows travellers like me who qualify and submit to a background check to get through more expeditiously. I know, Mr. Roth, you commented on that in your March 16 report and talked about the incident involving a convicted felon who was improperly cleared under one of these more flexible programs.    So, I guess let me just start there. I want to ask this question of you, Mr. Fletcher is, you know, why is the TSA using methods like Managed Inclusion and risk assessment to expedite the TSA PreCheck line when individuals who opted in the PreCheck program go through a more rigorous procedure to gain the benefits of the program, what it offers?</t>
@@ -773,7 +809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,7 +817,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,2957 +839,3445 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
       <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
       <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
       <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
       <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
       <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G62" t="s">
+        <v>83</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>74</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G64" t="s">
+        <v>83</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G66" t="s">
+        <v>83</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>74</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G70" t="s">
+        <v>83</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>74</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G72" t="s">
+        <v>83</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s">
+        <v>28</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>74</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G74" t="s">
+        <v>83</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s">
+        <v>28</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>74</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G76" t="s">
+        <v>83</v>
+      </c>
       <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s">
+        <v>100</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s">
+        <v>100</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s">
+        <v>100</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s">
+        <v>100</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s">
+        <v>100</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s">
+        <v>25</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s">
+        <v>100</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>104</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G92" t="s">
+        <v>116</v>
+      </c>
       <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>104</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G94" t="s">
+        <v>116</v>
+      </c>
       <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s">
+        <v>25</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s">
+        <v>64</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s">
+        <v>28</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s">
+        <v>28</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s">
+        <v>28</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s">
+        <v>28</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s">
+        <v>28</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G123" t="s">
+        <v>28</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>136</v>
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94887.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94887.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412649</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Katko</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
     <t>400402</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Thompson</t>
   </si>
   <si>
@@ -263,6 +272,9 @@
   </si>
   <si>
     <t>400341</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Rogers</t>
@@ -809,7 +821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,7 +829,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,3442 +854,3684 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>64</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>64</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H56" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" t="s">
-        <v>28</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s">
-        <v>28</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>28</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G70" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G72" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>28</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s">
-        <v>100</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>104</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>28</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="s">
-        <v>100</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>104</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>28</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" t="s">
-        <v>100</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>104</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>28</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>31</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" t="s">
-        <v>100</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>104</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s">
-        <v>28</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>31</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>100</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>104</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>100</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>104</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s">
-        <v>25</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>100</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>104</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G92" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="I92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s">
-        <v>28</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>31</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G94" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="I94" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>28</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>31</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>28</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>31</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>28</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>31</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s">
-        <v>28</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>31</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" t="s">
-        <v>28</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>31</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" t="s">
-        <v>28</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>31</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" t="s">
-        <v>25</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>28</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" t="s">
-        <v>64</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>67</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" t="s">
-        <v>28</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>31</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" t="s">
-        <v>28</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>31</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" t="s">
-        <v>28</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>31</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>24</v>
-      </c>
-      <c r="G117" t="s">
-        <v>28</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>31</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>24</v>
-      </c>
-      <c r="G119" t="s">
-        <v>28</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>31</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>24</v>
-      </c>
-      <c r="G121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>31</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>24</v>
-      </c>
-      <c r="G123" t="s">
-        <v>28</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>31</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>148</v>
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
